--- a/data/trans_orig/P1409-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>7840</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3739</v>
+        <v>3646</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14911</v>
+        <v>14775</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02659982113966306</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01268658441714787</v>
+        <v>0.0123716702886355</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05058920308727125</v>
+        <v>0.05012891184930405</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -764,19 +764,19 @@
         <v>11161</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5132</v>
+        <v>5983</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18999</v>
+        <v>20513</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0388539671871961</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01786496071387554</v>
+        <v>0.0208290716091158</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06614205911299946</v>
+        <v>0.07141204466139758</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -785,19 +785,19 @@
         <v>19001</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11404</v>
+        <v>11614</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28903</v>
+        <v>29547</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03264800810929852</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01959560408670384</v>
+        <v>0.01995629552892781</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0496632034262448</v>
+        <v>0.05076984801010213</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>286898</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>279827</v>
+        <v>279963</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>290999</v>
+        <v>291092</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9734001788603369</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9494107969127287</v>
+        <v>0.9498710881506959</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9873134155828521</v>
+        <v>0.9876283297113645</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>246</v>
@@ -835,19 +835,19 @@
         <v>276084</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>268246</v>
+        <v>266732</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>282113</v>
+        <v>281262</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9611460328128039</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9338579408870005</v>
+        <v>0.9285879553386024</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9821350392861244</v>
+        <v>0.9791709283908842</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>520</v>
@@ -856,19 +856,19 @@
         <v>562982</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>553080</v>
+        <v>552436</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>570579</v>
+        <v>570369</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9673519918907014</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9503367965737552</v>
+        <v>0.9492301519898985</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9804043959132962</v>
+        <v>0.9800437044710723</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>6110</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2111</v>
+        <v>2106</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12451</v>
+        <v>11382</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01208681295086616</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004175622125735028</v>
+        <v>0.004166469554358765</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02463018717154694</v>
+        <v>0.02251466960000113</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -981,19 +981,19 @@
         <v>17695</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9776</v>
+        <v>10264</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26782</v>
+        <v>28918</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03378417464246446</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01866541998346042</v>
+        <v>0.01959728874455109</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05113431360293245</v>
+        <v>0.05521247333479638</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -1002,19 +1002,19 @@
         <v>23805</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15251</v>
+        <v>15537</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36239</v>
+        <v>34939</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02312771859872644</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01481674440924564</v>
+        <v>0.01509492771258561</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03520722996845969</v>
+        <v>0.03394503528582501</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>499417</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>493076</v>
+        <v>494145</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>503416</v>
+        <v>503421</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9879131870491339</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.975369812828453</v>
+        <v>0.9774853303999987</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9958243778742649</v>
+        <v>0.9958335304456412</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>464</v>
@@ -1052,19 +1052,19 @@
         <v>506070</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>496983</v>
+        <v>494847</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>513989</v>
+        <v>513501</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9662158253575356</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9488656863970674</v>
+        <v>0.9447875266652036</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9813345800165391</v>
+        <v>0.980402711255449</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>930</v>
@@ -1073,19 +1073,19 @@
         <v>1005487</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>993053</v>
+        <v>994353</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1014041</v>
+        <v>1013755</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9768722814012736</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9647927700315404</v>
+        <v>0.9660549647141751</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9851832555907544</v>
+        <v>0.9849050722874144</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>5931</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2834</v>
+        <v>2024</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11930</v>
+        <v>11993</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01830355398343442</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008744744043081759</v>
+        <v>0.006245732206185939</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03681707619002916</v>
+        <v>0.03701024705590664</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1201,16 +1201,16 @@
         <v>3014</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16452</v>
+        <v>14450</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02087899279483376</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008836914764722365</v>
+        <v>0.008839078045260908</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04824299284144721</v>
+        <v>0.04237175402006466</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1219,19 +1219,19 @@
         <v>13051</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6963</v>
+        <v>6962</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21875</v>
+        <v>22572</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01962413893692025</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0104701297327415</v>
+        <v>0.0104678677998368</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03289216897963078</v>
+        <v>0.03393981215285923</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>318115</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>312116</v>
+        <v>312053</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>321212</v>
+        <v>322022</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9816964460165656</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9631829238099708</v>
+        <v>0.9629897529440924</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9912552559569183</v>
+        <v>0.993754267793814</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>311</v>
@@ -1269,7 +1269,7 @@
         <v>333900</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>324568</v>
+        <v>326570</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>338006</v>
@@ -1278,10 +1278,10 @@
         <v>0.9791210072051663</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9517570071585528</v>
+        <v>0.9576282459799352</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9911630852352776</v>
+        <v>0.9911609219547391</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>624</v>
@@ -1290,19 +1290,19 @@
         <v>652015</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>643191</v>
+        <v>642494</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>658103</v>
+        <v>658104</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9803758610630797</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9671078310203692</v>
+        <v>0.9660601878471408</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9895298702672585</v>
+        <v>0.9895321322001632</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>7082</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2986</v>
+        <v>3037</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13317</v>
+        <v>14827</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0189375846825528</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007985248152983293</v>
+        <v>0.008119974631800532</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03560772075274123</v>
+        <v>0.03964628031170814</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1415,19 +1415,19 @@
         <v>8871</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4072</v>
+        <v>4052</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15876</v>
+        <v>15811</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02280832665640358</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01046810643882839</v>
+        <v>0.01041873972411651</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04081800770479769</v>
+        <v>0.04065105366263355</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -1436,19 +1436,19 @@
         <v>15954</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9378</v>
+        <v>9703</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25302</v>
+        <v>26472</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02091092798645948</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01229231988903744</v>
+        <v>0.01271765023084708</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03316442619495392</v>
+        <v>0.03469764281516935</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>366900</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>360665</v>
+        <v>359155</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>370996</v>
+        <v>370945</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9810624153174472</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9643922792472589</v>
+        <v>0.9603537196882919</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9920147518470168</v>
+        <v>0.9918800253681995</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>362</v>
@@ -1486,19 +1486,19 @@
         <v>380080</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>373075</v>
+        <v>373140</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>384879</v>
+        <v>384899</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9771916733435965</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9591819922952023</v>
+        <v>0.9593489463373663</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9895318935611717</v>
+        <v>0.9895812602758834</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>699</v>
@@ -1507,19 +1507,19 @@
         <v>746979</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>737631</v>
+        <v>736461</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>753555</v>
+        <v>753230</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9790890720135406</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9668355738050461</v>
+        <v>0.9653023571848306</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9877076801109624</v>
+        <v>0.9872823497691529</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>5020</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1962</v>
+        <v>1944</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11161</v>
+        <v>11631</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02361057794724135</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009227230885431689</v>
+        <v>0.009142402902593504</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05249282477877809</v>
+        <v>0.05470596562740667</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1632,19 +1632,19 @@
         <v>5698</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1904</v>
+        <v>1875</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12954</v>
+        <v>13145</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02595012769799292</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008668496347183561</v>
+        <v>0.008540789507714402</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05899208836576</v>
+        <v>0.05986059593857927</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1653,19 +1653,19 @@
         <v>10718</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5672</v>
+        <v>5644</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19598</v>
+        <v>19507</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0247992251584871</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01312408994510364</v>
+        <v>0.01305816734930399</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04534356589064254</v>
+        <v>0.04513361311407416</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>207598</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>201457</v>
+        <v>200987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210656</v>
+        <v>210674</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9763894220527587</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9475071752212219</v>
+        <v>0.9452940343725932</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9907727691145684</v>
+        <v>0.9908575970974064</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>207</v>
@@ -1703,19 +1703,19 @@
         <v>213893</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>206637</v>
+        <v>206446</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>217687</v>
+        <v>217716</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9740498723020071</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9410079116342391</v>
+        <v>0.9401394040614206</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9913315036528164</v>
+        <v>0.9914592104922856</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>398</v>
@@ -1724,19 +1724,19 @@
         <v>421491</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>412611</v>
+        <v>412702</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>426537</v>
+        <v>426565</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9752007748415129</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9546564341093573</v>
+        <v>0.954866386885926</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9868759100548963</v>
+        <v>0.986941832650696</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>7156</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3132</v>
+        <v>3161</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14384</v>
+        <v>14431</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02611986554595812</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01143127173149047</v>
+        <v>0.01153729678866568</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05249992031451139</v>
+        <v>0.05267194257068428</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1849,19 +1849,19 @@
         <v>8870</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4129</v>
+        <v>4139</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17304</v>
+        <v>16074</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03189718945075369</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01484733905816157</v>
+        <v>0.01488189845294695</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06222223399071359</v>
+        <v>0.05780041206980089</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -1870,19 +1870,19 @@
         <v>16027</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9766</v>
+        <v>9040</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24894</v>
+        <v>24308</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02903005731128201</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01768917356135055</v>
+        <v>0.01637378341959978</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04509238634167091</v>
+        <v>0.04403098367076484</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>266825</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>259597</v>
+        <v>259550</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>270849</v>
+        <v>270820</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9738801344540419</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9475000796854888</v>
+        <v>0.9473280574293157</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9885687282685096</v>
+        <v>0.9884627032113342</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>259</v>
@@ -1920,19 +1920,19 @@
         <v>269226</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>260792</v>
+        <v>262022</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>273967</v>
+        <v>273957</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9681028105492463</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9377777660092864</v>
+        <v>0.9421995879301991</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9851526609418384</v>
+        <v>0.9851181015470528</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>513</v>
@@ -1941,19 +1941,19 @@
         <v>536050</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>527183</v>
+        <v>527769</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>542311</v>
+        <v>543037</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9709699426887179</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9549076136583291</v>
+        <v>0.9559690163292359</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9823108264386496</v>
+        <v>0.9836262165804003</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>9820</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4857</v>
+        <v>4794</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19086</v>
+        <v>18161</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01481605382937404</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00732799882724364</v>
+        <v>0.007232712791253774</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02879635748453094</v>
+        <v>0.02740071701677555</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -2066,19 +2066,19 @@
         <v>14974</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7910</v>
+        <v>8187</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26315</v>
+        <v>25618</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02158129146598186</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01139979622245315</v>
+        <v>0.01179910688246516</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03792574416990806</v>
+        <v>0.03692201853779093</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -2087,19 +2087,19 @@
         <v>24794</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15772</v>
+        <v>15513</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>37559</v>
+        <v>38956</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01827612926370078</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01162581796939954</v>
+        <v>0.01143484501825188</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02768550002310563</v>
+        <v>0.02871473989282259</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>652968</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>643702</v>
+        <v>644627</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>657931</v>
+        <v>657994</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.985183946170626</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9712036425154691</v>
+        <v>0.9725992829832245</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9926720011727564</v>
+        <v>0.9927672872087462</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>624</v>
@@ -2137,19 +2137,19 @@
         <v>678879</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>667538</v>
+        <v>668235</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>685943</v>
+        <v>685666</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9784187085340181</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9620742558300919</v>
+        <v>0.963077981462209</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9886002037775469</v>
+        <v>0.9882008931175349</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1233</v>
@@ -2158,19 +2158,19 @@
         <v>1331847</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1319082</v>
+        <v>1317685</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1340869</v>
+        <v>1341128</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9817238707362992</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9723144999768948</v>
+        <v>0.9712852601071783</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9883741820306005</v>
+        <v>0.9885651549817482</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>16461</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9172</v>
+        <v>9234</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27498</v>
+        <v>26777</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02112845506975342</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01177317545282141</v>
+        <v>0.01185250827725256</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03529422558958707</v>
+        <v>0.03436952813905307</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>21</v>
@@ -2283,19 +2283,19 @@
         <v>21790</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13543</v>
+        <v>13702</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30938</v>
+        <v>32749</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02652829642392215</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01648759077564473</v>
+        <v>0.01668114796288483</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03766552998022782</v>
+        <v>0.03987057374679944</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>36</v>
@@ -2304,19 +2304,19 @@
         <v>38251</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26920</v>
+        <v>27551</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>53059</v>
+        <v>52879</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02389972709249538</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01681991453258763</v>
+        <v>0.01721392838426642</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03315165304946015</v>
+        <v>0.03303908126390379</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>762637</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>751600</v>
+        <v>752321</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>769926</v>
+        <v>769864</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9788715449302465</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9647057744104128</v>
+        <v>0.9656304718609469</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9882268245471786</v>
+        <v>0.9881474917227474</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>734</v>
@@ -2354,19 +2354,19 @@
         <v>799605</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>790457</v>
+        <v>788646</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>807852</v>
+        <v>807693</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9734717035760778</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9623344700197721</v>
+        <v>0.9601294262532005</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9835124092243553</v>
+        <v>0.9833188520371153</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1436</v>
@@ -2375,19 +2375,19 @@
         <v>1562242</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1547434</v>
+        <v>1547614</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1573573</v>
+        <v>1572942</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9761002729075047</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9668483469505399</v>
+        <v>0.9669609187360962</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9831800854674124</v>
+        <v>0.9827860716157336</v>
       </c>
     </row>
     <row r="27">
@@ -2479,19 +2479,19 @@
         <v>65421</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>51118</v>
+        <v>49826</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>82562</v>
+        <v>82406</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01909114538981749</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01491709552948997</v>
+        <v>0.01454015969614824</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02409318267194955</v>
+        <v>0.02404766709812177</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>88</v>
@@ -2500,19 +2500,19 @@
         <v>96180</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>76534</v>
+        <v>77592</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>117115</v>
+        <v>117818</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02706321689366825</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02153525465828988</v>
+        <v>0.02183268031102076</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03295389072489161</v>
+        <v>0.03315164854182196</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>151</v>
@@ -2521,19 +2521,19 @@
         <v>161602</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>138401</v>
+        <v>137532</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>188866</v>
+        <v>189031</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02314977733220051</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01982624020628889</v>
+        <v>0.019701698198475</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02705552090568639</v>
+        <v>0.02707911755402076</v>
       </c>
     </row>
     <row r="29">
@@ -2550,19 +2550,19 @@
         <v>3361358</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3344217</v>
+        <v>3344373</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3375661</v>
+        <v>3376953</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9809088546101825</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9759068173280505</v>
+        <v>0.9759523329018782</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9850829044705101</v>
+        <v>0.9854598403038518</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3207</v>
@@ -2571,19 +2571,19 @@
         <v>3457736</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3436801</v>
+        <v>3436098</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3477382</v>
+        <v>3476324</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9729367831063317</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9670461092751084</v>
+        <v>0.966848351458178</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9784647453417101</v>
+        <v>0.9781673196889792</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6353</v>
@@ -2592,19 +2592,19 @@
         <v>6819092</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6791828</v>
+        <v>6791663</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6842293</v>
+        <v>6843162</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9768502226677995</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9729444790943136</v>
+        <v>0.9729208824459792</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.980173759793711</v>
+        <v>0.9802983018015248</v>
       </c>
     </row>
     <row r="30">
@@ -2940,19 +2940,19 @@
         <v>10348</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5407</v>
+        <v>5190</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18672</v>
+        <v>19266</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03522643404827276</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01840736860100601</v>
+        <v>0.01766843779432986</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06356165982609599</v>
+        <v>0.06558499796076425</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -2961,19 +2961,19 @@
         <v>10688</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5601</v>
+        <v>5623</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18739</v>
+        <v>18497</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03702171107586127</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01940157782858343</v>
+        <v>0.01947782540056601</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06490580538125881</v>
+        <v>0.06407052801278609</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -2982,19 +2982,19 @@
         <v>21036</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13159</v>
+        <v>13018</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31285</v>
+        <v>31320</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03611627764861011</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02259180760070506</v>
+        <v>0.02235009175905191</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05371230002411071</v>
+        <v>0.05377215807319879</v>
       </c>
     </row>
     <row r="5">
@@ -3011,19 +3011,19 @@
         <v>283413</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>275089</v>
+        <v>274495</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>288354</v>
+        <v>288571</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9647735659517273</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9364383401739038</v>
+        <v>0.9344150020392368</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9815926313989939</v>
+        <v>0.9823315622056702</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>266</v>
@@ -3032,19 +3032,19 @@
         <v>278015</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>269964</v>
+        <v>270206</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>283102</v>
+        <v>283080</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9629782889241387</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9350941946187412</v>
+        <v>0.9359294719872144</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9805984221714166</v>
+        <v>0.9805221745994341</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>522</v>
@@ -3053,19 +3053,19 @@
         <v>561428</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>551179</v>
+        <v>551144</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>569305</v>
+        <v>569446</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9638837223513899</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9462876999758901</v>
+        <v>0.946227841926802</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9774081923992952</v>
+        <v>0.9776499082409481</v>
       </c>
     </row>
     <row r="6">
@@ -3157,19 +3157,19 @@
         <v>6221</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2790</v>
+        <v>2095</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12790</v>
+        <v>13244</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01237797382862352</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005551949985863036</v>
+        <v>0.00416868189569401</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02544862539130956</v>
+        <v>0.02635172047334303</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -3178,19 +3178,19 @@
         <v>18340</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11195</v>
+        <v>10990</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27809</v>
+        <v>27864</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0350604666127535</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02140255687865904</v>
+        <v>0.02101041100322453</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05316342039023241</v>
+        <v>0.05326892712850904</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -3199,19 +3199,19 @@
         <v>24560</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16158</v>
+        <v>16003</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36944</v>
+        <v>35421</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02394599485041521</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0157541542339162</v>
+        <v>0.01560312568083515</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03601934096591308</v>
+        <v>0.03453464861813057</v>
       </c>
     </row>
     <row r="8">
@@ -3228,19 +3228,19 @@
         <v>496354</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>489785</v>
+        <v>489331</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>499785</v>
+        <v>500480</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9876220261713765</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.974551374608691</v>
+        <v>0.9736482795266572</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9944480500141369</v>
+        <v>0.9958313181043059</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>466</v>
@@ -3249,19 +3249,19 @@
         <v>504744</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>495275</v>
+        <v>495220</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>511889</v>
+        <v>512094</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9649395333872465</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9468365796097674</v>
+        <v>0.9467310728714908</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.978597443121341</v>
+        <v>0.9789895889967754</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>935</v>
@@ -3270,19 +3270,19 @@
         <v>1001099</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>988715</v>
+        <v>990238</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1009501</v>
+        <v>1009656</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9760540051495847</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9639806590340874</v>
+        <v>0.9654653513818692</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9842458457660839</v>
+        <v>0.9843968743191648</v>
       </c>
     </row>
     <row r="9">
@@ -3374,19 +3374,19 @@
         <v>6173</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2016</v>
+        <v>2528</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13728</v>
+        <v>13509</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0193763079175858</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006328813128425509</v>
+        <v>0.007934579137697875</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04309448133319073</v>
+        <v>0.04240473378489524</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3395,19 +3395,19 @@
         <v>11963</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6326</v>
+        <v>6299</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22435</v>
+        <v>22074</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03557018060479981</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01880859941103145</v>
+        <v>0.01872961884496001</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06670841510970929</v>
+        <v>0.06563734778384644</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -3416,19 +3416,19 @@
         <v>18135</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10852</v>
+        <v>10785</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28371</v>
+        <v>28264</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0276926331423284</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01657076789250317</v>
+        <v>0.01646841885648801</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04332271537968285</v>
+        <v>0.04315995092588171</v>
       </c>
     </row>
     <row r="11">
@@ -3445,19 +3445,19 @@
         <v>312392</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>304837</v>
+        <v>305056</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>316549</v>
+        <v>316037</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9806236920824142</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9569055186668093</v>
+        <v>0.9575952662151046</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9936711868715745</v>
+        <v>0.9920654208623021</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>321</v>
@@ -3466,19 +3466,19 @@
         <v>324346</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>313874</v>
+        <v>314235</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>329983</v>
+        <v>330010</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9644298193952002</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9332915848902907</v>
+        <v>0.9343626522161538</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9811914005889686</v>
+        <v>0.9812703811550402</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>650</v>
@@ -3487,19 +3487,19 @@
         <v>636739</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>626503</v>
+        <v>626610</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>644022</v>
+        <v>644089</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9723073668576716</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9566772846203171</v>
+        <v>0.9568400490741183</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9834292321074968</v>
+        <v>0.9835315811435119</v>
       </c>
     </row>
     <row r="12">
@@ -3591,19 +3591,19 @@
         <v>15405</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8907</v>
+        <v>8506</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24602</v>
+        <v>24633</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04163909876198704</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02407493182528416</v>
+        <v>0.0229919938295666</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06649807507790592</v>
+        <v>0.06658191918222381</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -3612,19 +3612,19 @@
         <v>20177</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13060</v>
+        <v>12350</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31324</v>
+        <v>31217</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05209941615309316</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03372117449438167</v>
+        <v>0.03188816763004237</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08088245913705386</v>
+        <v>0.08060411784917003</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -3633,19 +3633,19 @@
         <v>35582</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25141</v>
+        <v>25083</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>49783</v>
+        <v>49109</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0469888764623219</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03320035992014789</v>
+        <v>0.03312418726091176</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0657427340742192</v>
+        <v>0.06485251528676912</v>
       </c>
     </row>
     <row r="14">
@@ -3662,19 +3662,19 @@
         <v>354559</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>345362</v>
+        <v>345331</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>361057</v>
+        <v>361458</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.958360901238013</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9335019249220941</v>
+        <v>0.9334180808177762</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9759250681747159</v>
+        <v>0.9770080061704335</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>339</v>
@@ -3683,19 +3683,19 @@
         <v>367106</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>355959</v>
+        <v>356066</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>374223</v>
+        <v>374933</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9479005838469068</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9191175408629462</v>
+        <v>0.91939588215083</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9662788255056184</v>
+        <v>0.9681118323699577</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>678</v>
@@ -3704,19 +3704,19 @@
         <v>721665</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>707464</v>
+        <v>708138</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>732106</v>
+        <v>732164</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9530111235376781</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9342572659257807</v>
+        <v>0.9351474847132309</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9667996400798521</v>
+        <v>0.9668758127390883</v>
       </c>
     </row>
     <row r="15">
@@ -3808,19 +3808,19 @@
         <v>5478</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2449</v>
+        <v>2000</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11559</v>
+        <v>11174</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02593563538481438</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01159539392738514</v>
+        <v>0.009469570241394549</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05472480199533967</v>
+        <v>0.05290285846222174</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -3829,19 +3829,19 @@
         <v>6716</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2970</v>
+        <v>2846</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13125</v>
+        <v>12669</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03072269848288757</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01358539998593016</v>
+        <v>0.01301860952822537</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06004249934763228</v>
+        <v>0.05795884348029709</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -3850,19 +3850,19 @@
         <v>12194</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6007</v>
+        <v>6958</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19101</v>
+        <v>19969</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02837018701172133</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01397554790028749</v>
+        <v>0.01618934881863726</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04444150511866527</v>
+        <v>0.04645962305120999</v>
       </c>
     </row>
     <row r="17">
@@ -3879,19 +3879,19 @@
         <v>205743</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>199662</v>
+        <v>200047</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>208772</v>
+        <v>209221</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9740643646151856</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9452751980046603</v>
+        <v>0.9470971415377782</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9884046060726148</v>
+        <v>0.9905304297586047</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>216</v>
@@ -3900,19 +3900,19 @@
         <v>211871</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>205462</v>
+        <v>205918</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>215617</v>
+        <v>215741</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9692773015171124</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9399575006523667</v>
+        <v>0.9420411565197028</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9864146000140698</v>
+        <v>0.9869813904717746</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>422</v>
@@ -3921,19 +3921,19 @@
         <v>417614</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>410707</v>
+        <v>409839</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>423801</v>
+        <v>422850</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9716298129882787</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9555584948813349</v>
+        <v>0.9535403769487897</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9860244520997127</v>
+        <v>0.9838106511813627</v>
       </c>
     </row>
     <row r="18">
@@ -4025,19 +4025,19 @@
         <v>3476</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8872</v>
+        <v>9636</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01321139986663776</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003345081706195484</v>
+        <v>0.003413604683278454</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03371885552640116</v>
+        <v>0.03662307709462102</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -4046,19 +4046,19 @@
         <v>8079</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3797</v>
+        <v>3562</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15250</v>
+        <v>15448</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02958180910331852</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01390097651159145</v>
+        <v>0.01304177295319285</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0558363052429016</v>
+        <v>0.05656132296150865</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -4067,19 +4067,19 @@
         <v>11555</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6190</v>
+        <v>6034</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19864</v>
+        <v>20337</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.021549123655334</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01154263455543916</v>
+        <v>0.0112519597744093</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03704397691868831</v>
+        <v>0.03792576384182565</v>
       </c>
     </row>
     <row r="20">
@@ -4096,19 +4096,19 @@
         <v>259647</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254251</v>
+        <v>253487</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262243</v>
+        <v>262225</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9867886001333622</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9662811444735984</v>
+        <v>0.9633769229053788</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9966549182938046</v>
+        <v>0.9965863953167211</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>255</v>
@@ -4117,19 +4117,19 @@
         <v>265036</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>257865</v>
+        <v>257667</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>269318</v>
+        <v>269553</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9704181908966815</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9441636947570985</v>
+        <v>0.9434386770384915</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9860990234884086</v>
+        <v>0.986958227046808</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>510</v>
@@ -4138,19 +4138,19 @@
         <v>524683</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>516374</v>
+        <v>515901</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>530048</v>
+        <v>530204</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.978450876344666</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9629560230813117</v>
+        <v>0.9620742361581744</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9884573654445615</v>
+        <v>0.9887480402255907</v>
       </c>
     </row>
     <row r="21">
@@ -4242,19 +4242,19 @@
         <v>20419</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12238</v>
+        <v>12632</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31582</v>
+        <v>32221</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03110069965740028</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01863929589494718</v>
+        <v>0.01923989471499101</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0481023887881518</v>
+        <v>0.04907562847084233</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -4263,19 +4263,19 @@
         <v>30695</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20789</v>
+        <v>21191</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44835</v>
+        <v>42726</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04440197027008334</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03007328616986851</v>
+        <v>0.03065384111436045</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06485672767857502</v>
+        <v>0.06180624987307241</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>47</v>
@@ -4284,19 +4284,19 @@
         <v>51114</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38167</v>
+        <v>37828</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>66659</v>
+        <v>67806</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03792273100056607</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02831721956766332</v>
+        <v>0.02806522600116533</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04945544143593843</v>
+        <v>0.05030678595042019</v>
       </c>
     </row>
     <row r="23">
@@ -4313,19 +4313,19 @@
         <v>636139</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>624976</v>
+        <v>624337</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>644320</v>
+        <v>643926</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9688993003425997</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9518976112118485</v>
+        <v>0.9509243715291578</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9813607041050528</v>
+        <v>0.980760105285009</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>617</v>
@@ -4334,19 +4334,19 @@
         <v>660599</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>646459</v>
+        <v>648568</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>670505</v>
+        <v>670103</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9555980297299167</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.935143272321425</v>
+        <v>0.9381937501269277</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9699267138301317</v>
+        <v>0.9693461588856397</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1179</v>
@@ -4355,19 +4355,19 @@
         <v>1296738</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1281193</v>
+        <v>1280046</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1309685</v>
+        <v>1310024</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9620772689994339</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9505445585640612</v>
+        <v>0.9496932140495792</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9716827804323361</v>
+        <v>0.9719347739988345</v>
       </c>
     </row>
     <row r="24">
@@ -4459,19 +4459,19 @@
         <v>18664</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11516</v>
+        <v>11665</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28076</v>
+        <v>28156</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02397214981861475</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0147903747506512</v>
+        <v>0.0149823930813906</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03606018509743209</v>
+        <v>0.03616375330799329</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -4480,19 +4480,19 @@
         <v>34501</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21946</v>
+        <v>23456</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>47526</v>
+        <v>50481</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04176019206541137</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02656304042706752</v>
+        <v>0.0283911417821159</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0575256640570686</v>
+        <v>0.06110279176643089</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>48</v>
@@ -4501,19 +4501,19 @@
         <v>53165</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>39983</v>
+        <v>39597</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>69586</v>
+        <v>69759</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03312989622489426</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0249153564824644</v>
+        <v>0.02467502231654837</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0433627591725666</v>
+        <v>0.04347026094041552</v>
       </c>
     </row>
     <row r="26">
@@ -4530,19 +4530,19 @@
         <v>759919</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>750507</v>
+        <v>750427</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>767067</v>
+        <v>766918</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9760278501813853</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9639398149025679</v>
+        <v>0.9638362466920065</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9852096252493489</v>
+        <v>0.9850176069186094</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>726</v>
@@ -4551,19 +4551,19 @@
         <v>791666</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>778641</v>
+        <v>775686</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>804221</v>
+        <v>802711</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9582398079345886</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9424743359429313</v>
+        <v>0.9388972082335693</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9734369595729323</v>
+        <v>0.9716088582178842</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1457</v>
@@ -4572,19 +4572,19 @@
         <v>1551585</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1535164</v>
+        <v>1534991</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1564767</v>
+        <v>1565153</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9668701037751057</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9566372408274334</v>
+        <v>0.9565297390595845</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9750846435175355</v>
+        <v>0.9753249776834516</v>
       </c>
     </row>
     <row r="27">
@@ -4676,19 +4676,19 @@
         <v>86185</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>69308</v>
+        <v>69671</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>108509</v>
+        <v>107655</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02539062987196886</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02041850189370339</v>
+        <v>0.02052567734377058</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03196767718547255</v>
+        <v>0.03171602182381973</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>132</v>
@@ -4697,19 +4697,19 @@
         <v>141158</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>119101</v>
+        <v>117940</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>167275</v>
+        <v>165669</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0398240914492156</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03360114364093895</v>
+        <v>0.03327379597781951</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04719236571803469</v>
+        <v>0.04673919134036895</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>216</v>
@@ -4718,19 +4718,19 @@
         <v>227343</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>199396</v>
+        <v>196615</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>260353</v>
+        <v>260974</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03276356610283877</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02873603704342532</v>
+        <v>0.02833518751906267</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03752083387129256</v>
+        <v>0.03761029370955254</v>
       </c>
     </row>
     <row r="29">
@@ -4747,19 +4747,19 @@
         <v>3308165</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3285841</v>
+        <v>3286695</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3325042</v>
+        <v>3324679</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9746093701280312</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9680323228145272</v>
+        <v>0.9682839781761803</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9795814981062966</v>
+        <v>0.9794743226562294</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3206</v>
@@ -4768,19 +4768,19 @@
         <v>3403384</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3377267</v>
+        <v>3378873</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3425441</v>
+        <v>3426602</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9601759085507844</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9528076342819651</v>
+        <v>0.953260808659631</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9663988563590609</v>
+        <v>0.9667262040221805</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6353</v>
@@ -4789,19 +4789,19 @@
         <v>6711549</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6678539</v>
+        <v>6677918</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6739496</v>
+        <v>6742277</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9672364338971612</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9624791661287074</v>
+        <v>0.9623897062904474</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9712639629565746</v>
+        <v>0.9716648124809373</v>
       </c>
     </row>
     <row r="30">
@@ -5137,19 +5137,19 @@
         <v>10971</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5458</v>
+        <v>5241</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22104</v>
+        <v>21750</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03440772411530088</v>
+        <v>0.03440772411530089</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0171179481584762</v>
+        <v>0.0164377962660773</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06932511344531836</v>
+        <v>0.06821643210638681</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -5158,19 +5158,19 @@
         <v>11647</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7416</v>
+        <v>7388</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17989</v>
+        <v>17140</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03685173359629264</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02346438122312636</v>
+        <v>0.02337462025991461</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05691654694586226</v>
+        <v>0.05422941105434004</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -5179,19 +5179,19 @@
         <v>22618</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15212</v>
+        <v>15347</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33145</v>
+        <v>35925</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03562436925706996</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02396000085152431</v>
+        <v>0.02417181144358597</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0522049252530937</v>
+        <v>0.05658249216447744</v>
       </c>
     </row>
     <row r="5">
@@ -5208,19 +5208,19 @@
         <v>307874</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>296741</v>
+        <v>297095</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>313387</v>
+        <v>313604</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9655922758846991</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9306748865546809</v>
+        <v>0.9317835678936128</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9828820518415239</v>
+        <v>0.9835622037339226</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>517</v>
@@ -5229,19 +5229,19 @@
         <v>304414</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>298072</v>
+        <v>298921</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>308645</v>
+        <v>308673</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9631482664037073</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9430834530541381</v>
+        <v>0.9457705889456602</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9765356187768744</v>
+        <v>0.9766253797400853</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>839</v>
@@ -5250,19 +5250,19 @@
         <v>612288</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>601761</v>
+        <v>598981</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>619694</v>
+        <v>619559</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9643756307429301</v>
+        <v>0.9643756307429303</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9477950747469064</v>
+        <v>0.9434175078355225</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9760399991484757</v>
+        <v>0.9758281885564137</v>
       </c>
     </row>
     <row r="6">
@@ -5354,19 +5354,19 @@
         <v>23895</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13821</v>
+        <v>13772</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42133</v>
+        <v>41980</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04511478141318984</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02609471761217218</v>
+        <v>0.02600250048529318</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07954652830623767</v>
+        <v>0.07925893148466215</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -5375,19 +5375,19 @@
         <v>24855</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17758</v>
+        <v>17843</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34169</v>
+        <v>33625</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04563438088306943</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03260273431399403</v>
+        <v>0.03276004481988392</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06273351587995171</v>
+        <v>0.06173631385251305</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>50</v>
@@ -5396,19 +5396,19 @@
         <v>48751</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35149</v>
+        <v>36529</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>64618</v>
+        <v>66649</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04537820938262197</v>
+        <v>0.04537820938262198</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03271720072645028</v>
+        <v>0.03400143726706003</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06014767948285518</v>
+        <v>0.06203828404114983</v>
       </c>
     </row>
     <row r="8">
@@ -5425,19 +5425,19 @@
         <v>505765</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>487527</v>
+        <v>487680</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>515839</v>
+        <v>515888</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9548852185868102</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9204534716937623</v>
+        <v>0.9207410685153381</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9739052823878279</v>
+        <v>0.9739974995147069</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>679</v>
@@ -5446,19 +5446,19 @@
         <v>519808</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>510494</v>
+        <v>511038</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>526905</v>
+        <v>526820</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9543656191169307</v>
+        <v>0.9543656191169305</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9372664841200481</v>
+        <v>0.938263686147487</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9673972656860056</v>
+        <v>0.9672399551801162</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1045</v>
@@ -5467,19 +5467,19 @@
         <v>1025572</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1009705</v>
+        <v>1007674</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1039174</v>
+        <v>1037794</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.954621790617378</v>
+        <v>0.9546217906173781</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9398523205171453</v>
+        <v>0.9379617159588498</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.96728279927355</v>
+        <v>0.9659985627329398</v>
       </c>
     </row>
     <row r="9">
@@ -5571,19 +5571,19 @@
         <v>14097</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7902</v>
+        <v>8821</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20280</v>
+        <v>21905</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04461131179374905</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02500798041890546</v>
+        <v>0.0279159857330058</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06417808008113204</v>
+        <v>0.0693211246738805</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -5592,19 +5592,19 @@
         <v>17582</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12106</v>
+        <v>12329</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25627</v>
+        <v>25641</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04933563274473924</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03396829464737942</v>
+        <v>0.03459554720200531</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07190872757105905</v>
+        <v>0.07194948313964983</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -5613,19 +5613,19 @@
         <v>31679</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22870</v>
+        <v>23660</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41848</v>
+        <v>41948</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04711536148590005</v>
+        <v>0.04711536148590004</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03401382449104791</v>
+        <v>0.03518916855029373</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06223843179591331</v>
+        <v>0.06238717270941081</v>
       </c>
     </row>
     <row r="11">
@@ -5642,19 +5642,19 @@
         <v>301896</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>295713</v>
+        <v>294088</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>308091</v>
+        <v>307172</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9553886882062509</v>
+        <v>0.9553886882062511</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9358219199188684</v>
+        <v>0.9306788753261199</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9749920195810945</v>
+        <v>0.9720840142669944</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>507</v>
@@ -5663,19 +5663,19 @@
         <v>338799</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>330754</v>
+        <v>330740</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>344275</v>
+        <v>344052</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9506643672552608</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.928091272428941</v>
+        <v>0.92805051686035</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9660317053526205</v>
+        <v>0.9654044527979945</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>849</v>
@@ -5684,19 +5684,19 @@
         <v>640696</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>630527</v>
+        <v>630427</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>649505</v>
+        <v>648715</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9528846385141002</v>
+        <v>0.9528846385140999</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9377615682040867</v>
+        <v>0.9376128272905891</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9659861755089522</v>
+        <v>0.9648108314497065</v>
       </c>
     </row>
     <row r="12">
@@ -5788,19 +5788,19 @@
         <v>12662</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6151</v>
+        <v>5687</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28305</v>
+        <v>30318</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03393186517992156</v>
+        <v>0.03393186517992157</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01648364498909474</v>
+        <v>0.01524049020289888</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07585524101289644</v>
+        <v>0.08125117934431796</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -5809,19 +5809,19 @@
         <v>8139</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4686</v>
+        <v>4506</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13792</v>
+        <v>13932</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01928796388212979</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01110519991258521</v>
+        <v>0.01067851435656547</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03268478058332936</v>
+        <v>0.03301819016057679</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -5830,19 +5830,19 @@
         <v>20800</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13572</v>
+        <v>12920</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36810</v>
+        <v>36821</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02616037775882018</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01706968297271188</v>
+        <v>0.0162488640862204</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04629600501172579</v>
+        <v>0.04630952660880153</v>
       </c>
     </row>
     <row r="14">
@@ -5859,19 +5859,19 @@
         <v>360483</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>344840</v>
+        <v>342827</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>366994</v>
+        <v>367458</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9660681348200785</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9241447589871036</v>
+        <v>0.9187488206556849</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9835163550109052</v>
+        <v>0.9847595097971011</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>585</v>
@@ -5880,19 +5880,19 @@
         <v>413822</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>408169</v>
+        <v>408029</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>417275</v>
+        <v>417455</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9807120361178702</v>
+        <v>0.9807120361178704</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9673152194166705</v>
+        <v>0.9669818098394232</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9888948000874147</v>
+        <v>0.9893214856434345</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>866</v>
@@ -5901,19 +5901,19 @@
         <v>774307</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>758297</v>
+        <v>758286</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>781535</v>
+        <v>782187</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9738396222411799</v>
+        <v>0.9738396222411798</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9537039949882744</v>
+        <v>0.9536904733911984</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9829303170272883</v>
+        <v>0.9837511359137794</v>
       </c>
     </row>
     <row r="15">
@@ -6005,19 +6005,19 @@
         <v>3523</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9311</v>
+        <v>10347</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01713096193496576</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004647507917313729</v>
+        <v>0.004681859062648113</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04527181357869838</v>
+        <v>0.05030761742192807</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -6026,19 +6026,19 @@
         <v>10093</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6329</v>
+        <v>5992</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17532</v>
+        <v>16725</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04466378339453412</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02800944581758368</v>
+        <v>0.02651799527648506</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07758636056819299</v>
+        <v>0.07401619100410331</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -6047,19 +6047,19 @@
         <v>13616</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7994</v>
+        <v>8689</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21517</v>
+        <v>22014</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03154492333575071</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01851931914683565</v>
+        <v>0.02013120006129009</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04984954961765046</v>
+        <v>0.0510007135443355</v>
       </c>
     </row>
     <row r="17">
@@ -6076,19 +6076,19 @@
         <v>202142</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>196354</v>
+        <v>195318</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>204709</v>
+        <v>204702</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9828690380650341</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9547281864213014</v>
+        <v>0.9496923825780715</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9953524920826862</v>
+        <v>0.9953181409373518</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>469</v>
@@ -6097,19 +6097,19 @@
         <v>215875</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>208436</v>
+        <v>209243</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>219639</v>
+        <v>219976</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9553362166054659</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9224136394318069</v>
+        <v>0.9259838089958967</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9719905541824163</v>
+        <v>0.9734820047235149</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>745</v>
@@ -6118,19 +6118,19 @@
         <v>418017</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>410116</v>
+        <v>409619</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>423639</v>
+        <v>422944</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9684550766642492</v>
+        <v>0.9684550766642493</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9501504503823497</v>
+        <v>0.9489992864556644</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9814806808531643</v>
+        <v>0.9798687999387098</v>
       </c>
     </row>
     <row r="18">
@@ -6222,19 +6222,19 @@
         <v>9601</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5780</v>
+        <v>5622</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15518</v>
+        <v>15474</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03546746117811245</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02135072245814235</v>
+        <v>0.02076880535390311</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05732436566283786</v>
+        <v>0.05716052968317859</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -6243,19 +6243,19 @@
         <v>14180</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9333</v>
+        <v>9641</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20673</v>
+        <v>21079</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05389769956009157</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03547325297225479</v>
+        <v>0.0366436029633525</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07857327805772825</v>
+        <v>0.08011838281447328</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>44</v>
@@ -6264,19 +6264,19 @@
         <v>23782</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17289</v>
+        <v>16773</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32071</v>
+        <v>31533</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0445512470996529</v>
+        <v>0.04455124709965289</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03238899826139766</v>
+        <v>0.03142067098091224</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0600805707740115</v>
+        <v>0.05907163580609124</v>
       </c>
     </row>
     <row r="20">
@@ -6293,19 +6293,19 @@
         <v>261106</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>255189</v>
+        <v>255233</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>264927</v>
+        <v>265085</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9645325388218875</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9426756343371621</v>
+        <v>0.9428394703168216</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9786492775418576</v>
+        <v>0.9792311946460971</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>431</v>
@@ -6314,19 +6314,19 @@
         <v>248919</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>242426</v>
+        <v>242020</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>253766</v>
+        <v>253458</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9461023004399085</v>
+        <v>0.9461023004399086</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9214267219422716</v>
+        <v>0.9198816171855267</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9645267470277451</v>
+        <v>0.9633563970366477</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>786</v>
@@ -6335,19 +6335,19 @@
         <v>510024</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>501735</v>
+        <v>502273</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>516517</v>
+        <v>517033</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9554487529003473</v>
+        <v>0.9554487529003471</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9399194292259886</v>
+        <v>0.9409283641939087</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9676110017386023</v>
+        <v>0.9685793290190875</v>
       </c>
     </row>
     <row r="21">
@@ -6439,19 +6439,19 @@
         <v>28778</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16831</v>
+        <v>17333</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45909</v>
+        <v>46897</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.04016817723343668</v>
+        <v>0.04016817723343667</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02349255031655023</v>
+        <v>0.02419284276238274</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06408033567676603</v>
+        <v>0.06545980229758239</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>78</v>
@@ -6460,19 +6460,19 @@
         <v>60291</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>49517</v>
+        <v>47801</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>75111</v>
+        <v>75430</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07823074103751256</v>
+        <v>0.07823074103751254</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06425085314140405</v>
+        <v>0.06202394937069785</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09745989606217716</v>
+        <v>0.09787451544024994</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>98</v>
@@ -6481,19 +6481,19 @@
         <v>89069</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>70225</v>
+        <v>72689</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>111262</v>
+        <v>110333</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.05989377352759225</v>
+        <v>0.05989377352759227</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04722197800088539</v>
+        <v>0.04887902834261148</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07481714071932989</v>
+        <v>0.07419281696979153</v>
       </c>
     </row>
     <row r="23">
@@ -6510,19 +6510,19 @@
         <v>687653</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>670522</v>
+        <v>669534</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>699600</v>
+        <v>699098</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9598318227665633</v>
+        <v>0.9598318227665632</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9359196643232345</v>
+        <v>0.9345401977024178</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9765074496834499</v>
+        <v>0.9758071572376172</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>880</v>
@@ -6531,19 +6531,19 @@
         <v>710394</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>695574</v>
+        <v>695255</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>721168</v>
+        <v>722884</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9217692589624876</v>
+        <v>0.9217692589624875</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9025401039378229</v>
+        <v>0.9021254845597499</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9357491468585961</v>
+        <v>0.937976050629302</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1456</v>
@@ -6552,19 +6552,19 @@
         <v>1398046</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1375853</v>
+        <v>1376782</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1416890</v>
+        <v>1414426</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9401062264724077</v>
+        <v>0.9401062264724078</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9251828592806692</v>
+        <v>0.9258071830302088</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9527780219991144</v>
+        <v>0.9511209716573887</v>
       </c>
     </row>
     <row r="24">
@@ -6656,19 +6656,19 @@
         <v>32354</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21864</v>
+        <v>21764</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46424</v>
+        <v>47832</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04054057453512575</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02739597015275029</v>
+        <v>0.02727085696252813</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0581700533563707</v>
+        <v>0.05993409286011147</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>42</v>
@@ -6677,19 +6677,19 @@
         <v>30908</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22389</v>
+        <v>22567</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>42033</v>
+        <v>40859</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03721163240384601</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02695504910085824</v>
+        <v>0.02716932017854187</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05060539042590665</v>
+        <v>0.04919212868838004</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>69</v>
@@ -6698,19 +6698,19 @@
         <v>63263</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>49262</v>
+        <v>49240</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>78972</v>
+        <v>80335</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0388428516422932</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0302467678537274</v>
+        <v>0.03023278751220183</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0484881053408049</v>
+        <v>0.04932537003270952</v>
       </c>
     </row>
     <row r="26">
@@ -6727,19 +6727,19 @@
         <v>765718</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>751648</v>
+        <v>750240</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>776208</v>
+        <v>776308</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9594594254648741</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9418299466436293</v>
+        <v>0.9400659071398882</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9726040298472495</v>
+        <v>0.9727291430374718</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1019</v>
@@ -6748,19 +6748,19 @@
         <v>799701</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>788576</v>
+        <v>789750</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>808220</v>
+        <v>808042</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.962788367596154</v>
+        <v>0.9627883675961539</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9493946095740933</v>
+        <v>0.95080787131162</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9730449508991418</v>
+        <v>0.9728306798214581</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1754</v>
@@ -6769,19 +6769,19 @@
         <v>1565418</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1549709</v>
+        <v>1548346</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1579419</v>
+        <v>1579441</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9611571483577066</v>
+        <v>0.9611571483577068</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9515118946591953</v>
+        <v>0.9506746299672905</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9697532321462726</v>
+        <v>0.9697672124877981</v>
       </c>
     </row>
     <row r="27">
@@ -6873,19 +6873,19 @@
         <v>135881</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>110526</v>
+        <v>110783</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>167052</v>
+        <v>167679</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03850941067902774</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03132366422865277</v>
+        <v>0.03139640622144587</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04734336112947959</v>
+        <v>0.04752107556135166</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>267</v>
@@ -6894,19 +6894,19 @@
         <v>177696</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>157873</v>
+        <v>157486</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>202971</v>
+        <v>202811</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.04764710036468307</v>
+        <v>0.04764710036468306</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04233177123261193</v>
+        <v>0.04222792475395597</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05442422434849485</v>
+        <v>0.05438116627672087</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>386</v>
@@ -6915,19 +6915,19 @@
         <v>313578</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>281923</v>
+        <v>281372</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>352221</v>
+        <v>348997</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.04320472712868246</v>
+        <v>0.04320472712868245</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03884336123399579</v>
+        <v>0.03876746204680678</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04852896017608707</v>
+        <v>0.04808480943010211</v>
       </c>
     </row>
     <row r="29">
@@ -6944,19 +6944,19 @@
         <v>3392637</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3361466</v>
+        <v>3360839</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3417992</v>
+        <v>3417735</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9614905893209724</v>
+        <v>0.9614905893209722</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9526566388705204</v>
+        <v>0.9524789244386477</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9686763357713473</v>
+        <v>0.9686035937785542</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5087</v>
@@ -6965,19 +6965,19 @@
         <v>3551731</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3526456</v>
+        <v>3526616</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3571554</v>
+        <v>3571941</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.952352899635317</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9455757756515052</v>
+        <v>0.9456188337232787</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9576682287673879</v>
+        <v>0.9577720752460438</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8340</v>
@@ -6986,19 +6986,19 @@
         <v>6944367</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6905724</v>
+        <v>6908948</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6976022</v>
+        <v>6976573</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9567952728713177</v>
+        <v>0.9567952728713174</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9514710398239129</v>
+        <v>0.9519151905698977</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9611566387660039</v>
+        <v>0.9612325379531931</v>
       </c>
     </row>
     <row r="30">
